--- a/messages.xlsx
+++ b/messages.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,12 +449,12 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Form of Address</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Protocol Choice</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Date Time</t>
         </is>
       </c>
     </row>
@@ -2980,6 +2980,1846 @@
       <c r="G83" t="inlineStr">
         <is>
           <t>2025-10-18 17:10:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Алсу</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>User provided name: Алсу</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2025-10-18 19:44:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Алсу</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>User provided name: Алсу</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2025-10-18 19:49:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Алсу</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>User provided name: Алсу</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2025-10-18 20:05:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Алсу</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>User provided name: Алсу</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2025-10-18 20:06:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2025-10-18 20:09:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Goal: aff</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Problems: 🎭 Неуверенность в компаниях людей (оценка: 1); 💥 Панические атаки (оценка: 2)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>goal_setting</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025-10-18 20:11:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>User provided name: f</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2025-10-18 20:15:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Goal: f</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Problems: 💔 Самокритичность, чувство вины (оценка: 0); 😞 Потеря интереса, апатия (оценка: 2)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>goal_setting</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025-10-18 20:16:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>алсу</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>User provided name: алсу</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2025-10-18 20:34:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Алсу</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>User provided name: Алсу</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2025-10-18 20:46:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Fkce</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>User provided name: Fkce</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:04:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:09:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:18:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>103422773</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>sanzhar_ib</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Н</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>User provided name: Н</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:20:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>6893133357</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>nadzh_k</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Надж</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>User provided name: Надж</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:20:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>183376883</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>zybtex</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Зубтех3000</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>User provided name: Зубтех3000</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:24:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:25:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:30:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:38:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Goal: ff</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Problems: </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>goal_setting</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:38:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:43:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>6893133357</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>nadzh_k</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Хочу начать любить жизнь</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>user_message</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:44:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Goal: ff</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Problems: </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>goal_setting</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:47:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2025-10-18 21:54:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2025-10-18 22:07:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2025-10-18 22:15:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Goal: OOOO</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Problems: </t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>goal_setting</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2025-10-18 22:16:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Алсу</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>User provided name: Алсу</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2025-10-18 22:32:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Алсу</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>User provided name: Алсу</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2025-10-18 22:35:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>950157812</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>sonyfication</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>User provided name: test3</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2025-10-18 23:11:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Alsu</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>User provided name: Alsu</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:01:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Alsu</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>User provided name: Alsu</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:08:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Alsu</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>User provided name: Alsu</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:14:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>user_message</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>aide</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>User provided name: aide</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:20:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:28:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1573532511</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MT_1787</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Дарья</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>User provided name: Дарья</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:31:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1573532511</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>MT_1787</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Ок</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>user_message</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:32:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1573532511</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>MT_1787</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Дарья</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>User provided name: Дарья</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:34:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>User provided name: f</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:34:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:41:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Alsu</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>User provided name: Alsu</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:44:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:48:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:53:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:56:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2025-10-19 09:58:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2025-10-19 10:01:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2025-10-19 10:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2025-10-19 10:30:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>form_of_address_choice</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2025-10-19 10:31:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>User provided name: Анна</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2025-10-19 10:31:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>form_of_address_choice</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2025-10-19 10:37:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>form_of_address_choice</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>ты</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2025-10-19 10:41:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>6479033897</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>zhuravlstrogo</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>User provided name: ff</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>name_input</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Вы</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>2025-10-19 11:21:11</t>
         </is>
       </c>
     </row>
